--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_08_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">With her intended partner suddenly disappeared, Maria is forced to step onto the field alone. A conspiracy comes to fruition, and Maria’s opponents are far more than she expected.
+    <t xml:space="preserve">With her intended partner suddenly disappeared, Maria is forced to step onto the field alone. A conspiracy comes to fruition, and Maria's opponents are far more than she expected.
 </t>
   </si>
   <si>
